--- a/MOCK_DATA.xlsx
+++ b/MOCK_DATA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="412">
   <si>
     <t>id</t>
   </si>
@@ -1236,12 +1236,6 @@
     <t>Verie</t>
   </si>
   <si>
-    <t>Bababuwi</t>
-  </si>
-  <si>
-    <t>Bianca</t>
-  </si>
-  <si>
     <t>Lisa</t>
   </si>
   <si>
@@ -1252,6 +1246,15 @@
   </si>
   <si>
     <t>test123</t>
+  </si>
+  <si>
+    <t>xxs</t>
+  </si>
+  <si>
+    <t>test 2</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1573,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1608,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C2" t="s">
         <v>404</v>
@@ -1631,13 +1634,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>409</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -1671,7 +1674,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1708,7 +1711,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -1728,7 +1731,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1831,7 +1834,7 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -1951,7 +1954,7 @@
         <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D19" t="s">
         <v>74</v>
